--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06109865832633592</v>
+        <v>0.05420935847385534</v>
       </c>
       <c r="H2" t="n">
-        <v>83.50713316854578</v>
+        <v>62.815424052533</v>
       </c>
       <c r="I2" t="n">
-        <v>33.22928813070132</v>
+        <v>22.37609340570134</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08312927435035458</v>
+        <v>0.08726066400548965</v>
       </c>
       <c r="H3" t="n">
-        <v>64.72757753370952</v>
+        <v>72.91427006839932</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03146884105080267</v>
+        <v>0.00551821268913246</v>
       </c>
       <c r="H4" t="n">
-        <v>-35.35015995695692</v>
+        <v>-88.66333948873518</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06400692885612037</v>
+        <v>0.02641686531232733</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.408618225091827</v>
+        <v>-62.61123016564573</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1471706607473653</v>
+        <v>-0.1266795748225182</v>
       </c>
       <c r="H6" t="n">
-        <v>25.11779917546552</v>
+        <v>-7.697210312082818</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09454902530770892</v>
+        <v>-0.1003745402199235</v>
       </c>
       <c r="H7" t="n">
-        <v>-24.38102768623475</v>
+        <v>19.72186330641683</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1618119560817404</v>
+        <v>-0.2406326073135062</v>
       </c>
       <c r="H8" t="n">
-        <v>-18.76042119928379</v>
+        <v>-20.81240556780693</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3242283696560857</v>
+        <v>-0.2774854394359303</v>
       </c>
       <c r="H9" t="n">
-        <v>7.333061021592879</v>
+        <v>8.140790902499011</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02834790018746162</v>
+        <v>0.01623425651550235</v>
       </c>
       <c r="H10" t="n">
-        <v>2127.356428869981</v>
+        <v>1175.560989653901</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01156129885347546</v>
+        <v>-0.002170395485955493</v>
       </c>
       <c r="H11" t="n">
-        <v>-156.2227431538672</v>
+        <v>89.44533918760294</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1953335043891418</v>
+        <v>0.2047639624242818</v>
       </c>
       <c r="H12" t="n">
-        <v>-7.822978308465089</v>
+        <v>-3.372786634565387</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2547698546541056</v>
+        <v>0.2029646940904748</v>
       </c>
       <c r="H13" t="n">
-        <v>8.414277548370952</v>
+        <v>-13.6307915725761</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05248724129386857</v>
+        <v>-0.06396752458548657</v>
       </c>
       <c r="H14" t="n">
-        <v>-42.3535573494724</v>
+        <v>29.74482661666902</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04563956378971841</v>
+        <v>-0.03630712098888983</v>
       </c>
       <c r="H15" t="n">
-        <v>-35.69060287414418</v>
+        <v>48.84067970217957</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2084184934486397</v>
+        <v>0.179312654399653</v>
       </c>
       <c r="H16" t="n">
-        <v>8.861281788464849</v>
+        <v>-6.341298817378815</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2154383116869221</v>
+        <v>0.192487754730631</v>
       </c>
       <c r="H17" t="n">
-        <v>23.90796483026954</v>
+        <v>10.70809902224279</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04394130056931039</v>
+        <v>0.03720344764525704</v>
       </c>
       <c r="H18" t="n">
-        <v>-18.97212420798106</v>
+        <v>-31.39674302357418</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06634983549212928</v>
+        <v>0.1072693293263688</v>
       </c>
       <c r="H19" t="n">
-        <v>-22.88453863824733</v>
+        <v>24.67436821226171</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01083795347858895</v>
+        <v>-0.009743751882736707</v>
       </c>
       <c r="H20" t="n">
-        <v>-14.85558910380067</v>
+        <v>-176.5482169316677</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0082650756368862</v>
+        <v>-0.0132917067627549</v>
       </c>
       <c r="H21" t="n">
-        <v>-115.3415524230749</v>
+        <v>75.32806412770269</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06425038874692335</v>
+        <v>0.05385418975789114</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.566276073914065</v>
+        <v>-17.49359731080001</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07715841509034119</v>
+        <v>0.05055083938284043</v>
       </c>
       <c r="H23" t="n">
-        <v>33.78512413263383</v>
+        <v>-12.34980249498749</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05517357063421054</v>
+        <v>0.04197356595449761</v>
       </c>
       <c r="H24" t="n">
-        <v>70.31975924699016</v>
+        <v>29.57159679774252</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01230570770874537</v>
+        <v>0.03486172696742442</v>
       </c>
       <c r="H25" t="n">
-        <v>-58.18954474225937</v>
+        <v>18.44785444913489</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1333534843796598</v>
+        <v>0.1146659372221144</v>
       </c>
       <c r="H26" t="n">
-        <v>17.70837639547762</v>
+        <v>1.213263088456262</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1327334022307013</v>
+        <v>0.1188855566643186</v>
       </c>
       <c r="H27" t="n">
-        <v>47.17468660475214</v>
+        <v>31.82020689480633</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09009620178428702</v>
+        <v>0.1098114109727999</v>
       </c>
       <c r="H28" t="n">
-        <v>-23.30091671978691</v>
+        <v>-6.517318282895962</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1591953522114619</v>
+        <v>0.1595799954062389</v>
       </c>
       <c r="H29" t="n">
-        <v>33.07570022721485</v>
+        <v>33.397233876103</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06907467483497107</v>
+        <v>0.07720087179343414</v>
       </c>
       <c r="H30" t="n">
-        <v>2.746373694247042</v>
+        <v>14.8338322512664</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06626753406759699</v>
+        <v>0.06466303978138337</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.424960756566783</v>
+        <v>-5.763271678154449</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06279124509338534</v>
+        <v>0.05425514502536975</v>
       </c>
       <c r="H32" t="n">
-        <v>43.79710905372295</v>
+        <v>24.24873872680241</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09137138913180136</v>
+        <v>0.07914967164052281</v>
       </c>
       <c r="H33" t="n">
-        <v>68.15248885312242</v>
+        <v>45.66063189718</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01943462899937007</v>
+        <v>-0.01790914647761115</v>
       </c>
       <c r="H34" t="n">
-        <v>1.759345034654328</v>
+        <v>6.228052218003899</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01581169684265622</v>
+        <v>0.01994435821913796</v>
       </c>
       <c r="H35" t="n">
-        <v>13.32381880360128</v>
+        <v>42.94296554448854</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.008585709915155405</v>
+        <v>0.00655482208017241</v>
       </c>
       <c r="H36" t="n">
-        <v>-155.5388819723059</v>
+        <v>-57.59844049499654</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01504292451821084</v>
+        <v>0.01968277893421209</v>
       </c>
       <c r="H37" t="n">
-        <v>20.11593052463267</v>
+        <v>57.16460613303108</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05522606972500468</v>
+        <v>0.05794523863790661</v>
       </c>
       <c r="H38" t="n">
-        <v>-23.02214305539723</v>
+        <v>-19.23198024591516</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0419952457706516</v>
+        <v>0.01732141904150066</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.47839774490992</v>
+        <v>-59.77610066900767</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04583940612875274</v>
+        <v>0.03780859928789656</v>
       </c>
       <c r="H40" t="n">
-        <v>2.48076328354388</v>
+        <v>-15.47329162986431</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05415507878722987</v>
+        <v>0.06406169515621545</v>
       </c>
       <c r="H41" t="n">
-        <v>338.1719137652239</v>
+        <v>418.3269269338114</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03895390569169625</v>
+        <v>0.07359774297901649</v>
       </c>
       <c r="H42" t="n">
-        <v>-25.4883953022603</v>
+        <v>40.77884705325751</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07052687326139218</v>
+        <v>0.09458736872839441</v>
       </c>
       <c r="H43" t="n">
-        <v>41.33674427082718</v>
+        <v>89.55428090038119</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1248269923967585</v>
+        <v>0.1118283218561764</v>
       </c>
       <c r="H44" t="n">
-        <v>-5.255277487457962</v>
+        <v>-15.12137623543506</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1635832300022819</v>
+        <v>0.1374645223080292</v>
       </c>
       <c r="H45" t="n">
-        <v>-8.830044509955842</v>
+        <v>-23.38680205722567</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.03421506857979455</v>
+        <v>-0.01788258394414319</v>
       </c>
       <c r="H46" t="n">
-        <v>-22.11429178675613</v>
+        <v>59.2928562477036</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0008155203786517221</v>
+        <v>-0.01631763662681298</v>
       </c>
       <c r="H47" t="n">
-        <v>-131.131879579288</v>
+        <v>-522.9135552987434</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.008340994663814563</v>
+        <v>0.006451910443179554</v>
       </c>
       <c r="H48" t="n">
-        <v>-157.5565679789648</v>
+        <v>-55.47895221320898</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01046143846714243</v>
+        <v>-0.007479637515932462</v>
       </c>
       <c r="H49" t="n">
-        <v>-288.1953617448942</v>
+        <v>-34.55444893670443</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1551105308157884</v>
+        <v>0.1451815521305615</v>
       </c>
       <c r="H50" t="n">
-        <v>8.520908750116085</v>
+        <v>1.574237984344455</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1225203884132686</v>
+        <v>0.1312532862187258</v>
       </c>
       <c r="H51" t="n">
-        <v>-6.448144420527496</v>
+        <v>0.2199604138345021</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0743000577310728</v>
+        <v>0.06978044798291895</v>
       </c>
       <c r="H52" t="n">
-        <v>19.93028965080671</v>
+        <v>12.63503144028695</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08758596105028406</v>
+        <v>0.09167221098406446</v>
       </c>
       <c r="H53" t="n">
-        <v>43.15728976464484</v>
+        <v>49.83617367259352</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1561038272953474</v>
+        <v>-0.1532919957480298</v>
       </c>
       <c r="H54" t="n">
-        <v>74.79473326030107</v>
+        <v>-71.64623040933394</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1154869783775929</v>
+        <v>-0.1231604147576212</v>
       </c>
       <c r="H55" t="n">
-        <v>11.27348499274854</v>
+        <v>-18.66695930362855</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1468579172645229</v>
+        <v>0.1486912525917697</v>
       </c>
       <c r="H56" t="n">
-        <v>-5.328464601581401</v>
+        <v>-4.146610238101701</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1951455595389953</v>
+        <v>0.151498611423235</v>
       </c>
       <c r="H57" t="n">
-        <v>39.90323267705843</v>
+        <v>8.611979356674802</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05420935847385534</v>
+        <v>0.05018343819492359</v>
       </c>
       <c r="H2" t="n">
-        <v>62.815424052533</v>
+        <v>50.72374955444613</v>
       </c>
       <c r="I2" t="n">
-        <v>22.37609340570134</v>
+        <v>-3.852011427567679</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08726066400548965</v>
+        <v>0.05355003774801669</v>
       </c>
       <c r="H3" t="n">
-        <v>72.91427006839932</v>
+        <v>6.113857771595778</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00551821268913246</v>
+        <v>0.02285958279678853</v>
       </c>
       <c r="H4" t="n">
-        <v>-88.66333948873518</v>
+        <v>-53.03708932663784</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02641686531232733</v>
+        <v>0.05406043305550109</v>
       </c>
       <c r="H5" t="n">
-        <v>-62.61123016564573</v>
+        <v>-23.48626285668959</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1266795748225182</v>
+        <v>-0.1249309654155799</v>
       </c>
       <c r="H6" t="n">
-        <v>-7.697210312082818</v>
+        <v>-6.210622159915711</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1003745402199235</v>
+        <v>-0.08869480447471619</v>
       </c>
       <c r="H7" t="n">
-        <v>19.72186330641683</v>
+        <v>29.06315065522374</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2406326073135062</v>
+        <v>-0.1657203920633042</v>
       </c>
       <c r="H8" t="n">
-        <v>-20.81240556780693</v>
+        <v>16.79814535391048</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2774854394359303</v>
+        <v>-0.2582632132690091</v>
       </c>
       <c r="H9" t="n">
-        <v>8.140790902499011</v>
+        <v>14.50414638657791</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01623425651550235</v>
+        <v>-0.0144477995911753</v>
       </c>
       <c r="H10" t="n">
-        <v>1175.560989653901</v>
+        <v>-1235.195167530006</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.002170395485955493</v>
+        <v>0.0188055357206654</v>
       </c>
       <c r="H11" t="n">
-        <v>89.44533918760294</v>
+        <v>191.4515590413969</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2047639624242818</v>
+        <v>0.1960582299757568</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.372786634565387</v>
+        <v>-7.480983491310026</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2029646940904748</v>
+        <v>0.2090171388885149</v>
       </c>
       <c r="H13" t="n">
-        <v>-13.6307915725761</v>
+        <v>-11.0552457684158</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06396752458548657</v>
+        <v>-0.07518686232417622</v>
       </c>
       <c r="H14" t="n">
-        <v>29.74482661666902</v>
+        <v>17.42269092069703</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03630712098888983</v>
+        <v>-0.05674831373872818</v>
       </c>
       <c r="H15" t="n">
-        <v>48.84067970217957</v>
+        <v>20.03758271526971</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.179312654399653</v>
+        <v>0.1608725043005211</v>
       </c>
       <c r="H16" t="n">
-        <v>-6.341298817378815</v>
+        <v>-15.97296989870668</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.192487754730631</v>
+        <v>0.2175767935957796</v>
       </c>
       <c r="H17" t="n">
-        <v>10.70809902224279</v>
+        <v>25.1378990006503</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03720344764525704</v>
+        <v>0.05249065074457285</v>
       </c>
       <c r="H18" t="n">
-        <v>-31.39674302357418</v>
+        <v>-3.207099615434893</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1072693293263688</v>
+        <v>0.09432152078493339</v>
       </c>
       <c r="H19" t="n">
-        <v>24.67436821226171</v>
+        <v>9.625706495310238</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.009743751882736707</v>
+        <v>0.02077551163480422</v>
       </c>
       <c r="H20" t="n">
-        <v>-176.5482169316677</v>
+        <v>63.21519581230432</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0132917067627549</v>
+        <v>0.001804647042903205</v>
       </c>
       <c r="H21" t="n">
-        <v>75.32806412770269</v>
+        <v>103.349768160655</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05385418975789114</v>
+        <v>0.06150433205437142</v>
       </c>
       <c r="H22" t="n">
-        <v>-17.49359731080001</v>
+        <v>-5.773325893094823</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05055083938284043</v>
+        <v>0.06875413730392002</v>
       </c>
       <c r="H23" t="n">
-        <v>-12.34980249498749</v>
+        <v>19.2129307356463</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04197356595449761</v>
+        <v>0.05214973460820089</v>
       </c>
       <c r="H24" t="n">
-        <v>29.57159679774252</v>
+        <v>60.98523516177532</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03486172696742442</v>
+        <v>0.02374773567592366</v>
       </c>
       <c r="H25" t="n">
-        <v>18.44785444913489</v>
+        <v>-19.31356867470332</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1146659372221144</v>
+        <v>0.1115454979818168</v>
       </c>
       <c r="H26" t="n">
-        <v>1.213263088456262</v>
+        <v>-1.541084413784126</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1188855566643186</v>
+        <v>0.1042892857647655</v>
       </c>
       <c r="H27" t="n">
-        <v>31.82020689480633</v>
+        <v>15.63587379449111</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1098114109727999</v>
+        <v>0.111977885612517</v>
       </c>
       <c r="H28" t="n">
-        <v>-6.517318282895962</v>
+        <v>-4.67299393264226</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1595799954062389</v>
+        <v>0.1535014757221047</v>
       </c>
       <c r="H29" t="n">
-        <v>33.397233876103</v>
+        <v>28.31603488332972</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07720087179343414</v>
+        <v>0.0711747949455982</v>
       </c>
       <c r="H30" t="n">
-        <v>14.8338322512664</v>
+        <v>5.870235315091817</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06466303978138337</v>
+        <v>0.05954693493036294</v>
       </c>
       <c r="H31" t="n">
-        <v>-5.763271678154449</v>
+        <v>-13.21923082485842</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05425514502536975</v>
+        <v>0.07647068595144858</v>
       </c>
       <c r="H32" t="n">
-        <v>24.24873872680241</v>
+        <v>75.12415227344869</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07914967164052281</v>
+        <v>0.09901010994046457</v>
       </c>
       <c r="H33" t="n">
-        <v>45.66063189718</v>
+        <v>82.21017067054595</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01790914647761115</v>
+        <v>-0.01416334654843619</v>
       </c>
       <c r="H34" t="n">
-        <v>6.228052218003899</v>
+        <v>25.84098887020617</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01994435821913796</v>
+        <v>0.02320279528850102</v>
       </c>
       <c r="H35" t="n">
-        <v>42.94296554448854</v>
+        <v>66.29646995998333</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00655482208017241</v>
+        <v>-0.01350367609082538</v>
       </c>
       <c r="H36" t="n">
-        <v>-57.59844049499654</v>
+        <v>-187.3520163168738</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01968277893421209</v>
+        <v>0.00660405982344067</v>
       </c>
       <c r="H37" t="n">
-        <v>57.16460613303108</v>
+        <v>-47.2673820856701</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05794523863790661</v>
+        <v>0.06086606399004042</v>
       </c>
       <c r="H38" t="n">
-        <v>-19.23198024591516</v>
+        <v>-15.16073495838521</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01732141904150066</v>
+        <v>0.02803576245557972</v>
       </c>
       <c r="H39" t="n">
-        <v>-59.77610066900767</v>
+        <v>-34.89519051649521</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03780859928789656</v>
+        <v>0.03902007913684925</v>
       </c>
       <c r="H40" t="n">
-        <v>-15.47329162986431</v>
+        <v>-12.76484948132109</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06406169515621545</v>
+        <v>0.04347450803869471</v>
       </c>
       <c r="H41" t="n">
-        <v>418.3269269338114</v>
+        <v>251.7547903892705</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07359774297901649</v>
+        <v>0.06842678246543014</v>
       </c>
       <c r="H42" t="n">
-        <v>40.77884705325751</v>
+        <v>30.88775760139545</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09458736872839441</v>
+        <v>0.09297877292998123</v>
       </c>
       <c r="H43" t="n">
-        <v>89.55428090038119</v>
+        <v>86.33063461518698</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1118283218561764</v>
+        <v>0.108297966497502</v>
       </c>
       <c r="H44" t="n">
-        <v>-15.12137623543506</v>
+        <v>-17.80094523254052</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1374645223080292</v>
+        <v>0.1461395343454001</v>
       </c>
       <c r="H45" t="n">
-        <v>-23.38680205722567</v>
+        <v>-18.55195155750347</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01788258394414319</v>
+        <v>-0.03132388572532004</v>
       </c>
       <c r="H46" t="n">
-        <v>59.2928562477036</v>
+        <v>28.69565589156796</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01631763662681298</v>
+        <v>0.01447852434865053</v>
       </c>
       <c r="H47" t="n">
-        <v>-522.9135552987434</v>
+        <v>652.7068216899504</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>0.006451910443179554</v>
+        <v>0.02387604621182151</v>
       </c>
       <c r="H48" t="n">
-        <v>-55.47895221320898</v>
+        <v>64.75532382502939</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.007479637515932462</v>
+        <v>-0.03567086426775265</v>
       </c>
       <c r="H49" t="n">
-        <v>-34.55444893670443</v>
+        <v>-541.6986751590033</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1451815521305615</v>
+        <v>0.1339483305454487</v>
       </c>
       <c r="H50" t="n">
-        <v>1.574237984344455</v>
+        <v>-6.284928045172979</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1312532862187258</v>
+        <v>0.1676184125611271</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2199604138345021</v>
+        <v>27.98697202530903</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06978044798291895</v>
+        <v>0.07550638965485255</v>
       </c>
       <c r="H52" t="n">
-        <v>12.63503144028695</v>
+        <v>21.87747167800742</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09167221098406446</v>
+        <v>0.06303307697874916</v>
       </c>
       <c r="H53" t="n">
-        <v>49.83617367259352</v>
+        <v>3.026151195890678</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1532919957480298</v>
+        <v>-0.1324748939848182</v>
       </c>
       <c r="H54" t="n">
-        <v>-71.64623040933394</v>
+        <v>-48.33661774321603</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1231604147576212</v>
+        <v>-0.07906336710736574</v>
       </c>
       <c r="H55" t="n">
-        <v>-18.66695930362855</v>
+        <v>23.82122628117375</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1486912525917697</v>
+        <v>0.1350123256975209</v>
       </c>
       <c r="H56" t="n">
-        <v>-4.146610238101701</v>
+        <v>-12.96469125002749</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.151498611423235</v>
+        <v>0.151694810763876</v>
       </c>
       <c r="H57" t="n">
-        <v>8.611979356674802</v>
+        <v>8.752638063281436</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>